--- a/data/trans_orig/Q15_2-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q15_2-Clase-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según el número de accidentes en los últimos 3 meses</t>
+          <t>Número medio de accidentes en los últimos 3 meses</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,01; 0,04</t>
+          <t>0,02; 0,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,02; 0,06</t>
+          <t>0,02; 0,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,01; 0,18</t>
+          <t>0,01; 0,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,04</t>
+          <t>0,0; 0,03</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,01; 0,02</t>
+          <t>0,01; 0,03</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,01; 0,1</t>
+          <t>0,01; 0,11</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,03; 0,07</t>
+          <t>0,03; 0,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,01; 0,04</t>
+          <t>0,0; 0,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,17 +1029,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,01; 0,06</t>
+          <t>0,01; 0,05</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,02; 0,1</t>
+          <t>0,01; 0,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,02; 0,08</t>
+          <t>0,02; 0,09</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,02; 0,04</t>
+          <t>0,02; 0,05</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1154,14 +1154,14 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
+          <t>0,01; 0,03</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>0,02; 0,04</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>0,02; 0,04</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
           <t>0,02; 0,05</t>
@@ -1169,12 +1169,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,01; 0,03</t>
+          <t>0,01; 0,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,02</t>
+          <t>0,01; 0,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,02; 0,05</t>
+          <t>0,02; 0,04</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,03; 0,05</t>
+          <t>0,02; 0,05</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1604,7 +1604,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,03; 0,03</t>
+          <t>0,03; 0,04</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">

--- a/data/trans_orig/Q15_2-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q15_2-Clase-trans_orig.xlsx
@@ -1346,7 +1346,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
